--- a/src/test/java/com/example/moneyAllocation/repository/data/regular_delete_expected.xlsx
+++ b/src/test/java/com/example/moneyAllocation/repository/data/regular_delete_expected.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryotasato/local-dev/MoneyAllocation/allocation-api/src/test/java/com/example/moneyAllocation/repository/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5504DB2D-76E9-7549-A88D-3C536180F320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D541A4A-8C95-974E-8C18-676BDE93C3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20680" yWindow="0" windowWidth="17720" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
     <sheet name="ACCOUNT" sheetId="2" r:id="rId2"/>
-    <sheet name="REGULAR_TRANSFER" sheetId="4" r:id="rId3"/>
-    <sheet name="TEMPORARY_TRANSFER" sheetId="5" r:id="rId4"/>
+    <sheet name="TRANSFER" sheetId="6" r:id="rId3"/>
+    <sheet name="REGULAR_TRANSFER" sheetId="4" r:id="rId4"/>
+    <sheet name="TEMPORARY_TRANSFER" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>三井</t>
   </si>
@@ -155,6 +156,26 @@
   </si>
   <si>
     <t>desc3</t>
+  </si>
+  <si>
+    <t>TRANSFER_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TITLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023/06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023/07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/09</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -203,11 +224,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1346,12 +1370,12 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17">
+    <row r="1" spans="1:4" ht="28">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1365,7 +1389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17">
+    <row r="2" spans="1:4" ht="14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1379,7 +1403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17">
+    <row r="3" spans="1:4" ht="14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1393,7 +1417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17">
+    <row r="4" spans="1:4" ht="14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1421,15 +1445,15 @@
       <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.19921875" customWidth="1"/>
+    <col min="2" max="2" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17">
+    <row r="1" spans="1:5" ht="28">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1446,7 +1470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1463,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17">
+    <row r="3" spans="1:5" ht="14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1480,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1497,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1514,7 +1538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17">
+    <row r="6" spans="1:5" ht="28">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1538,89 +1562,57 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF894ACD-80B4-5044-80FF-B87D40DD1943}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC21FC1A-BAD9-E546-AB89-F3FC2C54DDAF}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="17">
+    <row r="1" spans="1:3" ht="14">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17">
+    <row r="2" spans="1:3" ht="14">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>30000</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17">
+    </row>
+    <row r="3" spans="1:3" ht="14">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
         <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.4</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1630,20 +1622,112 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A0F55B-F18D-7B44-BBD4-71855BD07ACD}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF894ACD-80B4-5044-80FF-B87D40DD1943}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17">
+    <row r="1" spans="1:8" ht="28">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>30000</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.4</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A0F55B-F18D-7B44-BBD4-71855BD07ACD}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1662,8 +1746,11 @@
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17">
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1682,8 +1769,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="17">
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1702,8 +1792,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="17">
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1721,6 +1814,9 @@
       </c>
       <c r="F4" s="1">
         <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
